--- a/list komponen dasmeter-mutidrop.xlsx
+++ b/list komponen dasmeter-mutidrop.xlsx
@@ -296,11 +296,11 @@
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +700,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -720,7 +722,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -740,7 +744,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -760,7 +766,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>62</v>
       </c>
@@ -780,7 +788,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -804,7 +812,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -826,7 +834,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -848,7 +856,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -872,7 +880,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -896,7 +904,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -920,7 +928,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -947,7 +955,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -970,7 +978,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -993,10 +1001,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C17">
@@ -1015,10 +1023,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C18">
@@ -1037,8 +1045,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C19">
@@ -1057,8 +1067,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C20">
@@ -1077,8 +1089,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
+      <c r="A21" s="6">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -1101,6 +1113,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -1122,6 +1137,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
         <v>65</v>
       </c>
@@ -1140,6 +1158,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1158,6 +1179,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -1170,6 +1194,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -1191,6 +1218,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -1212,6 +1242,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -1233,6 +1266,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
@@ -1251,6 +1287,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
